--- a/forecasts/TM.Close_forecast.xlsx
+++ b/forecasts/TM.Close_forecast.xlsx
@@ -383,376 +383,376 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45812</v>
+        <v>45814</v>
       </c>
       <c r="B2" t="n">
-        <v>0.018236423682515</v>
+        <v>0.0183362420170723</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.00357578324359335</v>
+        <v>-0.00649507159454172</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0039555030515632</v>
+        <v>-0.00502763762789091</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.00285045924003613</v>
+        <v>-0.0066023786344082</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45813</v>
+        <v>45815</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0182340665232859</v>
+        <v>0.0183330619167738</v>
       </c>
       <c r="C3" t="n">
-        <v>0.015026051078495</v>
+        <v>0.000747716895161697</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.00554786118082794</v>
+        <v>-0.0115901074516007</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00191690370395821</v>
+        <v>0.00179270893243696</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45814</v>
+        <v>45816</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0182317273719155</v>
+        <v>0.0183299055593773</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0386748888493432</v>
+        <v>0.0109782766255906</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.00887542145876506</v>
+        <v>-0.00557503358752486</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00226285064753073</v>
+        <v>0.00866402027064218</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45815</v>
+        <v>45817</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0182294060930758</v>
+        <v>0.0183267727715661</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.00728780508574357</v>
+        <v>-0.00404020856378203</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.00223674346972828</v>
+        <v>0.0227734650614032</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.00480273996697961</v>
+        <v>-0.0101978184291077</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45816</v>
+        <v>45818</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0182271025524223</v>
+        <v>0.0183236633812312</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.00352023155522252</v>
+        <v>-0.0134713124535697</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.00698782016381671</v>
+        <v>-0.00534623802054077</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.0238688591180113</v>
+        <v>0.0113856896909492</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45817</v>
+        <v>45819</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0182248166165874</v>
+        <v>0.018320577217464</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.00793626797098661</v>
+        <v>0.0307085390592831</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00489914459391402</v>
+        <v>0.00144418502609657</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0116932610096706</v>
+        <v>0.0193765081785228</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45818</v>
+        <v>45820</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0182225481531733</v>
+        <v>0.0183175141105481</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.00500752336637815</v>
+        <v>0.0396461295979496</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0140278622368281</v>
+        <v>-0.00993119595402087</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00968642422701601</v>
+        <v>-0.00049119989218676</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45819</v>
+        <v>45821</v>
       </c>
       <c r="B9" t="n">
-        <v>0.018220297030746</v>
+        <v>0.0183144738919525</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.00142270855783767</v>
+        <v>-0.00468699010063058</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00773972474860882</v>
+        <v>0.0227725422285124</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0171476265608117</v>
+        <v>-0.0104410563763184</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45820</v>
+        <v>45822</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0182180631188282</v>
+        <v>0.0183114563943236</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.028352145832544</v>
+        <v>-0.0000445594567574355</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0237394429201697</v>
+        <v>0.0165544535774472</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.000118016290401624</v>
+        <v>-0.0191240083051101</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45821</v>
+        <v>45823</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0182158462878933</v>
+        <v>0.018308461451478</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00132558334918359</v>
+        <v>0.0210703709271035</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0210917659181869</v>
+        <v>-0.00175147187522842</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.00740778124287847</v>
+        <v>-0.0212859028886263</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45822</v>
+        <v>45824</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0182136464093587</v>
+        <v>0.0183054888983951</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.00561293280365903</v>
+        <v>0.00203204632472596</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0141360459855484</v>
+        <v>-0.00545802562839781</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0889334610377772</v>
+        <v>0.00363232033636597</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45823</v>
+        <v>45825</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0182114633555795</v>
+        <v>0.0183025385712094</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.00558508536796526</v>
+        <v>-0.00485068684723463</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0151014097597666</v>
+        <v>0.0141691973721955</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0241778701137965</v>
+        <v>0.00180448881992525</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45824</v>
+        <v>45826</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0182092969998419</v>
+        <v>0.0182996103072036</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.000765968119086601</v>
+        <v>-0.0027968082573086</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0039789247660306</v>
+        <v>0.00285899769507453</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.00155672685193357</v>
+        <v>0.0406633873467445</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45825</v>
+        <v>45827</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0182071472163569</v>
+        <v>0.0182967039448012</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0841299796183962</v>
+        <v>-0.0106116519178615</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.00218443549807945</v>
+        <v>-0.00974529921179601</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0108555676305384</v>
+        <v>-0.00222961905897661</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45826</v>
+        <v>45828</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0182050138802544</v>
+        <v>0.0182938193235589</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.00307179719174886</v>
+        <v>-0.014230176020998</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.00502492079392843</v>
+        <v>-0.0107027817580878</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00459980931202573</v>
+        <v>0.0000731918068228904</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45827</v>
+        <v>45829</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0182028968675762</v>
+        <v>0.0182909562841599</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00153577891195268</v>
+        <v>0.00347093023734478</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.0205778158174701</v>
+        <v>0.00336476912800875</v>
       </c>
       <c r="E17" t="n">
-        <v>0.00437892184444709</v>
+        <v>0.0102148876063929</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45828</v>
+        <v>45830</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0182007960552705</v>
+        <v>0.018288114668406</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0107997060918122</v>
+        <v>0.0160491762822185</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.00346990919863728</v>
+        <v>0.0121157513640834</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0183881965394606</v>
+        <v>0.0027869563333976</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45829</v>
+        <v>45831</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0181987113211851</v>
+        <v>0.0182852943192113</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0013242130979648</v>
+        <v>0.0186131165637892</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0020957594317929</v>
+        <v>0.0152919156487427</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0106569479503103</v>
+        <v>0.000852951359713605</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45830</v>
+        <v>45832</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0181966425440616</v>
+        <v>0.0182824950805943</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0148446018957176</v>
+        <v>-0.0427216741038255</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.00588467050567933</v>
+        <v>-0.00279819250664478</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.0100737129018516</v>
+        <v>0.00220024260061969</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0181945896035291</v>
+        <v>0.0182797167976714</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.00500497364070692</v>
+        <v>-0.00930892387711633</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.00827489353503508</v>
+        <v>0.012924135697219</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0137162845317122</v>
+        <v>-0.000402124432160949</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45832</v>
+        <v>45834</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0181925523800983</v>
+        <v>0.0182769593166493</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00491176502128409</v>
+        <v>-0.00520094254004606</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0151417600404802</v>
+        <v>0.0106714455810308</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.00726116420048391</v>
+        <v>-0.0221683017591455</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45833</v>
+        <v>45835</v>
       </c>
       <c r="B23" t="n">
-        <v>0.018190530755155</v>
+        <v>0.0182742224848185</v>
       </c>
       <c r="C23" t="n">
-        <v>0.00443555049874021</v>
+        <v>0.00160490092061214</v>
       </c>
       <c r="D23" t="n">
-        <v>0.00148933144429509</v>
+        <v>0.000763963507438977</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.0183725399606814</v>
+        <v>-0.0239074416793345</v>
       </c>
     </row>
   </sheetData>

--- a/forecasts/TM.Close_forecast.xlsx
+++ b/forecasts/TM.Close_forecast.xlsx
@@ -389,13 +389,13 @@
         <v>0.0183362420170723</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.00649507159454172</v>
+        <v>0.00504002822278157</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.00502763762789091</v>
+        <v>0.0263785591197152</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0066023786344082</v>
+        <v>0.0841222365689254</v>
       </c>
     </row>
     <row r="3">
@@ -406,13 +406,13 @@
         <v>0.0183330619167738</v>
       </c>
       <c r="C3" t="n">
-        <v>0.000747716895161697</v>
+        <v>-0.00506378833688449</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0115901074516007</v>
+        <v>0.0316147897030556</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00179270893243696</v>
+        <v>-0.0140073354964481</v>
       </c>
     </row>
     <row r="4">
@@ -423,13 +423,13 @@
         <v>0.0183299055593773</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0109782766255906</v>
+        <v>0.00484148422580103</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.00557503358752486</v>
+        <v>0.0396470524308404</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00866402027064218</v>
+        <v>-0.00812479356375165</v>
       </c>
     </row>
     <row r="5">
@@ -440,13 +440,13 @@
         <v>0.0183267727715661</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.00404020856378203</v>
+        <v>0.0122281584976131</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0227734650614032</v>
+        <v>0.0133366285049018</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.0101978184291077</v>
+        <v>-0.0115905688680461</v>
       </c>
     </row>
     <row r="6">
@@ -457,13 +457,13 @@
         <v>0.0183236633812312</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0134713124535697</v>
+        <v>0.00559131491618452</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.00534623802054077</v>
+        <v>-0.0215082275923305</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0113856896909492</v>
+        <v>0.0124270785911648</v>
       </c>
     </row>
     <row r="7">
@@ -474,13 +474,13 @@
         <v>0.018320577217464</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0307085390592831</v>
+        <v>-0.00541829344870475</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00144418502609657</v>
+        <v>0.00864198085421218</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0193765081785228</v>
+        <v>0.0147964163508863</v>
       </c>
     </row>
     <row r="8">
@@ -491,13 +491,13 @@
         <v>0.0183175141105481</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0396461295979496</v>
+        <v>0.00223814671241178</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.00993119595402087</v>
+        <v>-0.0134717738700151</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.00049119989218676</v>
+        <v>0.00157043634264965</v>
       </c>
     </row>
     <row r="9">
@@ -508,13 +508,13 @@
         <v>0.0183144738919525</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.00468699010063058</v>
+        <v>-0.0329270507775444</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0227725422285124</v>
+        <v>0.0129085365291181</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.0104410563763184</v>
+        <v>0.02495100094417</v>
       </c>
     </row>
     <row r="10">
@@ -525,13 +525,13 @@
         <v>0.0183114563943236</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0000445594567574355</v>
+        <v>-0.00479291719565437</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0165544535774472</v>
+        <v>0.00527156006542682</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.0191240083051101</v>
+        <v>-0.0241942380097079</v>
       </c>
     </row>
     <row r="11">
@@ -542,13 +542,13 @@
         <v>0.018308461451478</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0210703709271035</v>
+        <v>0.000180983727128753</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.00175147187522842</v>
+        <v>0.00317875334671784</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.0212859028886263</v>
+        <v>-0.0112831093065634</v>
       </c>
     </row>
     <row r="12">
@@ -559,13 +559,13 @@
         <v>0.0183054888983951</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00203204632472596</v>
+        <v>0.0069485843065454</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.00545802562839781</v>
+        <v>0.04114108123817</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00363232033636597</v>
+        <v>0.00525058349766179</v>
       </c>
     </row>
     <row r="13">
@@ -576,13 +576,13 @@
         <v>0.0183025385712094</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.00485068684723463</v>
+        <v>-0.00804448979619049</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0141691973721955</v>
+        <v>-0.00216472169172752</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00180448881992525</v>
+        <v>-0.000950579771163661</v>
       </c>
     </row>
     <row r="14">
@@ -593,13 +593,13 @@
         <v>0.0182996103072036</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.0027968082573086</v>
+        <v>-0.00142586861272562</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00285899769507453</v>
+        <v>0.00125777609423472</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0406633873467445</v>
+        <v>-0.00455823270511768</v>
       </c>
     </row>
     <row r="15">
@@ -610,13 +610,13 @@
         <v>0.0182967039448012</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.0106116519178615</v>
+        <v>-0.00442637071485026</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.00974529921179601</v>
+        <v>0.00828023072557943</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.00222961905897661</v>
+        <v>-0.0115596743004923</v>
       </c>
     </row>
     <row r="16">
@@ -627,13 +627,13 @@
         <v>0.0182938193235589</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.014230176020998</v>
+        <v>0.0227335096809062</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.0107027817580878</v>
+        <v>0.00483871572712867</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0000731918068228904</v>
+        <v>-0.016754437905999</v>
       </c>
     </row>
     <row r="17">
@@ -644,13 +644,13 @@
         <v>0.0182909562841599</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00347093023734478</v>
+        <v>0.0324908822724283</v>
       </c>
       <c r="D17" t="n">
-        <v>0.00336476912800875</v>
+        <v>-0.0387039624322541</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0102148876063929</v>
+        <v>0.00530040615154336</v>
       </c>
     </row>
     <row r="18">
@@ -661,13 +661,13 @@
         <v>0.018288114668406</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0160491762822185</v>
+        <v>0.024759015484299</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0121157513640834</v>
+        <v>-0.00179112046658943</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0027869563333976</v>
+        <v>-0.00899190491761345</v>
       </c>
     </row>
     <row r="19">
@@ -678,13 +678,13 @@
         <v>0.0182852943192113</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0186131165637892</v>
+        <v>0.00424521200716723</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0152919156487427</v>
+        <v>-0.000237398761155259</v>
       </c>
       <c r="E19" t="n">
-        <v>0.000852951359713605</v>
+        <v>-0.0191260846791143</v>
       </c>
     </row>
     <row r="20">
@@ -695,13 +695,13 @@
         <v>0.0182824950805943</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0427216741038255</v>
+        <v>0.0137459227081435</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.00279819250664478</v>
+        <v>0.000202143730295744</v>
       </c>
       <c r="E20" t="n">
-        <v>0.00220024260061969</v>
+        <v>0.00584262783479361</v>
       </c>
     </row>
     <row r="21">
@@ -712,13 +712,13 @@
         <v>0.0182797167976714</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.00930892387711633</v>
+        <v>-0.025124859962263</v>
       </c>
       <c r="D21" t="n">
-        <v>0.012924135697219</v>
+        <v>-0.00641978766057993</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.000402124432160949</v>
+        <v>-0.0277283144289595</v>
       </c>
     </row>
     <row r="22">
@@ -729,13 +729,13 @@
         <v>0.0182769593166493</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.00520094254004606</v>
+        <v>0.00257191992579798</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0106714455810308</v>
+        <v>-0.0174504412539983</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.0221683017591455</v>
+        <v>-0.019989226415689</v>
       </c>
     </row>
     <row r="23">
@@ -746,13 +746,13 @@
         <v>0.0182742224848185</v>
       </c>
       <c r="C23" t="n">
-        <v>0.00160490092061214</v>
+        <v>0.00665589523641456</v>
       </c>
       <c r="D23" t="n">
-        <v>0.000763963507438977</v>
+        <v>0.0134457692492389</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.0239074416793345</v>
+        <v>0.00894066810236706</v>
       </c>
     </row>
   </sheetData>

--- a/forecasts/TM.Close_forecast.xlsx
+++ b/forecasts/TM.Close_forecast.xlsx
@@ -383,376 +383,376 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0183362420170723</v>
+        <v>0.0163090860525316</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00504002822278157</v>
+        <v>-0.00444045287036114</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0263785591197152</v>
+        <v>0.0268644372940096</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0841222365689254</v>
+        <v>-0.00685627590611108</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0183330619167738</v>
+        <v>0.016320536495563</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.00506378833688449</v>
+        <v>0.012332968878022</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0316147897030556</v>
+        <v>0.0138658199178069</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.0140073354964481</v>
+        <v>-0.0265832550420615</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0183299055593773</v>
+        <v>0.0163318824299802</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00484148422580103</v>
+        <v>-0.000436334205525369</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0396470524308404</v>
+        <v>-0.0188424548279535</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.00812479356375165</v>
+        <v>0.00615594952308414</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0183267727715661</v>
+        <v>0.0163431248866783</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0122281584976131</v>
+        <v>0.00404282474155455</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0133366285049018</v>
+        <v>-0.0140308656282419</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.0115905688680461</v>
+        <v>0.0166567539018751</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45818</v>
+        <v>45825</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0183236633812312</v>
+        <v>0.0163542648848852</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00559131491618452</v>
+        <v>0.0187151793358694</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0215082275923305</v>
+        <v>-0.00415411217271018</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0124270785911648</v>
+        <v>-0.000436452012020617</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45819</v>
+        <v>45826</v>
       </c>
       <c r="B7" t="n">
-        <v>0.018320577217464</v>
+        <v>0.0163653034323243</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.00541829344870475</v>
+        <v>-0.00628530023266835</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00864198085421218</v>
+        <v>0.00314040768797016</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0147964163508863</v>
+        <v>-0.0104507742322884</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45820</v>
+        <v>45827</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0183175141105481</v>
+        <v>0.0163762415253733</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00223814671241178</v>
+        <v>-0.00147751180235805</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0134717738700151</v>
+        <v>-0.0109201815766062</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00157043634264965</v>
+        <v>-0.0105139032637752</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45821</v>
+        <v>45828</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0183144738919525</v>
+        <v>0.0163870801492206</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0329270507775444</v>
+        <v>-0.000437591992303527</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0129085365291181</v>
+        <v>0.00862175478218703</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02495100094417</v>
+        <v>-0.00380868798763481</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45822</v>
+        <v>45829</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0183114563943236</v>
+        <v>0.0163978202780188</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.00479291719565437</v>
+        <v>-0.0126227320808266</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00527156006542682</v>
+        <v>0.0160145822879545</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.0241942380097079</v>
+        <v>-0.00848035187234544</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45823</v>
+        <v>45830</v>
       </c>
       <c r="B11" t="n">
-        <v>0.018308461451478</v>
+        <v>0.0164084628750358</v>
       </c>
       <c r="C11" t="n">
-        <v>0.000180983727128753</v>
+        <v>0.0124179511069474</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00317875334671784</v>
+        <v>-0.00394537958782436</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.0112831093065634</v>
+        <v>0.0406596081826417</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0183054888983951</v>
+        <v>0.0164190088928029</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0069485843065454</v>
+        <v>-0.0165311395112936</v>
       </c>
       <c r="D12" t="n">
-        <v>0.04114108123817</v>
+        <v>0.00334854760043438</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00525058349766179</v>
+        <v>0.00524146285224652</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45825</v>
+        <v>45832</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0183025385712094</v>
+        <v>0.0164294592732607</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.00804448979619049</v>
+        <v>0.0114135188634815</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.00216472169172752</v>
+        <v>-0.0642678853161765</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.000950579771163661</v>
+        <v>-0.00859148878546161</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0182996103072036</v>
+        <v>0.0164398149479023</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.00142586861272562</v>
+        <v>-0.0164922664573177</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00125777609423472</v>
+        <v>-0.00940568977557694</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.00455823270511768</v>
+        <v>-0.0131398668217232</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0182967039448012</v>
+        <v>0.0164500768379141</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.00442637071485026</v>
+        <v>0.000411878964789523</v>
       </c>
       <c r="D15" t="n">
-        <v>0.00828023072557943</v>
+        <v>0.0182860986734074</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.0115596743004923</v>
+        <v>0.00363383205095984</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45828</v>
+        <v>45835</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0182938193235589</v>
+        <v>0.0164602458543143</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0227335096809062</v>
+        <v>-0.00777394511071236</v>
       </c>
       <c r="D16" t="n">
-        <v>0.00483871572712867</v>
+        <v>0.0216618121712076</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.016754437905999</v>
+        <v>0.0120232164600563</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45829</v>
+        <v>45836</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0182909562841599</v>
+        <v>0.0164703228980886</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0324908822724283</v>
+        <v>-0.00244191313249083</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.0387039624322541</v>
+        <v>0.00853302434032759</v>
       </c>
       <c r="E17" t="n">
-        <v>0.00530040615154336</v>
+        <v>0.0109115044757562</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45830</v>
+        <v>45837</v>
       </c>
       <c r="B18" t="n">
-        <v>0.018288114668406</v>
+        <v>0.0164803088603245</v>
       </c>
       <c r="C18" t="n">
-        <v>0.024759015484299</v>
+        <v>0.0175421634221328</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.00179112046658943</v>
+        <v>0.00127591678813198</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.00899190491761345</v>
+        <v>-0.00148002737591436</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45831</v>
+        <v>45838</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0182852943192113</v>
+        <v>0.0164902046223422</v>
       </c>
       <c r="C19" t="n">
-        <v>0.00424521200716723</v>
+        <v>-0.0179490627590813</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.000237398761155259</v>
+        <v>0.0354103399789545</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.0191260846791143</v>
+        <v>0.00936383392229687</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45832</v>
+        <v>45839</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0182824950805943</v>
+        <v>0.0165000110558245</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0137459227081435</v>
+        <v>-0.0206624823349322</v>
       </c>
       <c r="D20" t="n">
-        <v>0.000202143730295744</v>
+        <v>0.0124156870907467</v>
       </c>
       <c r="E20" t="n">
-        <v>0.00584262783479361</v>
+        <v>-0.00255560157598381</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45833</v>
+        <v>45840</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0182797167976714</v>
+        <v>0.0165097290229434</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.025124859962263</v>
+        <v>-0.00859350124430666</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.00641978766057993</v>
+        <v>-0.000628884679721569</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.0277283144289595</v>
+        <v>-0.0055404534425649</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45834</v>
+        <v>45841</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0182769593166493</v>
+        <v>0.0165193593764856</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00257191992579798</v>
+        <v>-0.00317435830798252</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.0174504412539983</v>
+        <v>0.0199922077209073</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.019989226415689</v>
+        <v>-0.0145609532189466</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45835</v>
+        <v>45842</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0182742224848185</v>
+        <v>0.0165289029599752</v>
       </c>
       <c r="C23" t="n">
-        <v>0.00665589523641456</v>
+        <v>0.0118362978570238</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0134457692492389</v>
+        <v>0.00473859145751067</v>
       </c>
       <c r="E23" t="n">
-        <v>0.00894066810236706</v>
+        <v>0.00195062900604169</v>
       </c>
     </row>
   </sheetData>
